--- a/Wetlands/SamplingNotes/SamplingData_Wetland-05_2022-06-28.xlsx
+++ b/Wetlands/SamplingNotes/SamplingData_Wetland-05_2022-06-28.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Documents\Ecuador2022\Wetlands\SamplingNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7883BF7-0EA2-431C-A4E7-AEC6D7F4B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5484BA-5F1C-4091-AF7D-DD66092EBAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3B8ED86-64AF-524D-AEEF-8D97D0F239C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Wetland Number</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">bottle number </t>
+  </si>
+  <si>
+    <t>time stopped (m)</t>
   </si>
 </sst>
 </file>
@@ -439,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575C4805-2878-244D-BD32-5D98DCE788F1}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -448,7 +451,7 @@
     <col min="1" max="1" width="21.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -464,12 +467,12 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -477,7 +480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -485,12 +488,12 @@
         <v>0.43194444444444446</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -498,39 +501,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0.4375</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>0.4513888888888889</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>0.46527777777777773</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>0.47916666666666669</v>
       </c>
@@ -538,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -550,6 +565,9 @@
       <c r="B17" t="s">
         <v>11</v>
       </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -558,6 +576,9 @@
       <c r="B18">
         <v>1</v>
       </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -566,6 +587,9 @@
       <c r="B19">
         <v>2</v>
       </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -574,6 +598,9 @@
       <c r="B20">
         <v>3</v>
       </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -637,7 +664,7 @@
         <v>101</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
         <v>0.43402777777777773</v>
